--- a/data/pca/factorExposure/factorExposure_2012-10-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-12.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001680313216899987</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001961551896238001</v>
+      </c>
+      <c r="C2">
+        <v>0.02837515085797983</v>
+      </c>
+      <c r="D2">
+        <v>0.005601648103812165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0005892716254003479</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006905338113701099</v>
+      </c>
+      <c r="C4">
+        <v>0.08254578981901928</v>
+      </c>
+      <c r="D4">
+        <v>0.07237450384309106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0002787841932820205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01384817644050937</v>
+      </c>
+      <c r="C6">
+        <v>0.113441641022223</v>
+      </c>
+      <c r="D6">
+        <v>0.02558950284225911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.0004600679350106401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004982911346548103</v>
+      </c>
+      <c r="C7">
+        <v>0.05812896395085802</v>
+      </c>
+      <c r="D7">
+        <v>0.03355012350622297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0007555987934815973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005743037752781135</v>
+      </c>
+      <c r="C8">
+        <v>0.03482418353790676</v>
+      </c>
+      <c r="D8">
+        <v>0.0404586477842341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.002594412186473636</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005137837194431724</v>
+      </c>
+      <c r="C9">
+        <v>0.07007339795519288</v>
+      </c>
+      <c r="D9">
+        <v>0.07679259308316427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002378143377749345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005784752720241458</v>
+      </c>
+      <c r="C10">
+        <v>0.05627137534265819</v>
+      </c>
+      <c r="D10">
+        <v>-0.1948219613586462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003069543607466497</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005536589607775277</v>
+      </c>
+      <c r="C11">
+        <v>0.07920622469820515</v>
+      </c>
+      <c r="D11">
+        <v>0.0648862327420336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001516849318449212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004044011666954075</v>
+      </c>
+      <c r="C12">
+        <v>0.06438426022629255</v>
+      </c>
+      <c r="D12">
+        <v>0.05159342402880741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003046284462705147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008338621619078059</v>
+      </c>
+      <c r="C13">
+        <v>0.06694391800316958</v>
+      </c>
+      <c r="D13">
+        <v>0.06271387264330493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001685750686313658</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007145561008786558</v>
+      </c>
+      <c r="C14">
+        <v>0.04232383178923339</v>
+      </c>
+      <c r="D14">
+        <v>0.01113774211442484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0002798427283316992</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005740275396898294</v>
+      </c>
+      <c r="C15">
+        <v>0.04039370250074565</v>
+      </c>
+      <c r="D15">
+        <v>0.02893810771617922</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.000708488518141033</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004968814855264373</v>
+      </c>
+      <c r="C16">
+        <v>0.06406555064299881</v>
+      </c>
+      <c r="D16">
+        <v>0.05779580928401746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0007150896885890814</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008853268101662731</v>
+      </c>
+      <c r="C20">
+        <v>0.06343536179332625</v>
+      </c>
+      <c r="D20">
+        <v>0.05028646306734846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006240190821844717</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009509729993774687</v>
+      </c>
+      <c r="C21">
+        <v>0.01944716788796813</v>
+      </c>
+      <c r="D21">
+        <v>0.04178815971362031</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02263787015429267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006516334880898584</v>
+      </c>
+      <c r="C22">
+        <v>0.08723719159544215</v>
+      </c>
+      <c r="D22">
+        <v>0.1227155919042552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.02241998452913293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006330168095290821</v>
+      </c>
+      <c r="C23">
+        <v>0.0877179345951431</v>
+      </c>
+      <c r="D23">
+        <v>0.1234616797329391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002430838640080531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005514315864076708</v>
+      </c>
+      <c r="C24">
+        <v>0.07575500660377439</v>
+      </c>
+      <c r="D24">
+        <v>0.06862724570534402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004238249044436568</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003102406107273794</v>
+      </c>
+      <c r="C25">
+        <v>0.078067511362047</v>
+      </c>
+      <c r="D25">
+        <v>0.06659174281439002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003391553636685541</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003627657707392971</v>
+      </c>
+      <c r="C26">
+        <v>0.03851446710964126</v>
+      </c>
+      <c r="D26">
+        <v>0.02555885767928907</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006070562402204734</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001279286492218768</v>
+      </c>
+      <c r="C28">
+        <v>0.1046026073194856</v>
+      </c>
+      <c r="D28">
+        <v>-0.322820172411766</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0009305391054128427</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002668977137704521</v>
+      </c>
+      <c r="C29">
+        <v>0.04827271745487154</v>
+      </c>
+      <c r="D29">
+        <v>0.01003687152747506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005512251956894081</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009618873806471279</v>
+      </c>
+      <c r="C30">
+        <v>0.1416740009759048</v>
+      </c>
+      <c r="D30">
+        <v>0.1081393062032744</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001168082506060999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.00622886909615162</v>
+      </c>
+      <c r="C31">
+        <v>0.04357492868474881</v>
+      </c>
+      <c r="D31">
+        <v>0.03249058461018526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001868761545679723</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.00345541943682798</v>
+      </c>
+      <c r="C32">
+        <v>0.03961342467368464</v>
+      </c>
+      <c r="D32">
+        <v>0.02462398262324661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.001566038374405496</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009004832749301334</v>
+      </c>
+      <c r="C33">
+        <v>0.08789090626504595</v>
+      </c>
+      <c r="D33">
+        <v>0.0664653235077728</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.003485597438965855</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004117306426546129</v>
+      </c>
+      <c r="C34">
+        <v>0.05757724226893465</v>
+      </c>
+      <c r="D34">
+        <v>0.05897454965312093</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0007469218483981262</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005255886237560713</v>
+      </c>
+      <c r="C35">
+        <v>0.04062066763511935</v>
+      </c>
+      <c r="D35">
+        <v>0.02108007757453148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.005378870764053922</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001482938855566354</v>
+      </c>
+      <c r="C36">
+        <v>0.02425986356542913</v>
+      </c>
+      <c r="D36">
+        <v>0.02592513141289239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.0001188171535783323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009277331003199663</v>
+      </c>
+      <c r="C38">
+        <v>0.03801587900329742</v>
+      </c>
+      <c r="D38">
+        <v>0.0139722740196417</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.013331570951224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001472203876541336</v>
+      </c>
+      <c r="C39">
+        <v>0.1136798208494722</v>
+      </c>
+      <c r="D39">
+        <v>0.07701563739396677</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008265828278781067</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.00359880332002667</v>
+      </c>
+      <c r="C40">
+        <v>0.09020822219583285</v>
+      </c>
+      <c r="D40">
+        <v>0.020736883722715</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0007729363975407315</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007173362751022144</v>
+      </c>
+      <c r="C41">
+        <v>0.03872856720050489</v>
+      </c>
+      <c r="D41">
+        <v>0.03981532170059857</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002576624531175104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003863710683488009</v>
+      </c>
+      <c r="C43">
+        <v>0.05322748681136286</v>
+      </c>
+      <c r="D43">
+        <v>0.0277124393705491</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01357810403575651</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002818655389151692</v>
+      </c>
+      <c r="C44">
+        <v>0.1042453577141572</v>
+      </c>
+      <c r="D44">
+        <v>0.07005969384212729</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0008625209725974789</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001688306310498133</v>
+      </c>
+      <c r="C46">
+        <v>0.0325239367334961</v>
+      </c>
+      <c r="D46">
+        <v>0.03442802216397953</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001465290853893223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002061513242442231</v>
+      </c>
+      <c r="C47">
+        <v>0.03487577281506149</v>
+      </c>
+      <c r="D47">
+        <v>0.02321868282671979</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.00314746843324518</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006605752622036134</v>
+      </c>
+      <c r="C48">
+        <v>0.03015499517446739</v>
+      </c>
+      <c r="D48">
+        <v>0.03670173251585086</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.006975621595373835</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01728674894824534</v>
+      </c>
+      <c r="C49">
+        <v>0.1895818848564444</v>
+      </c>
+      <c r="D49">
+        <v>0.007234812601919718</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006087803175714776</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003459680313098819</v>
+      </c>
+      <c r="C50">
+        <v>0.04244827254317839</v>
+      </c>
+      <c r="D50">
+        <v>0.0391300197766416</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-1.979088766090194e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004716455925265058</v>
+      </c>
+      <c r="C51">
+        <v>0.02598268301258895</v>
+      </c>
+      <c r="D51">
+        <v>0.02168819138445821</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.002374497000858337</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02118915400038841</v>
+      </c>
+      <c r="C53">
+        <v>0.1714715335720759</v>
+      </c>
+      <c r="D53">
+        <v>0.02285637100057668</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.002243844908850128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008844812018859699</v>
+      </c>
+      <c r="C54">
+        <v>0.05369096469011412</v>
+      </c>
+      <c r="D54">
+        <v>0.04464683881328727</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003211089194315944</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009467321680400114</v>
+      </c>
+      <c r="C55">
+        <v>0.1074990085889874</v>
+      </c>
+      <c r="D55">
+        <v>0.04100661545429921</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.004474263656169765</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02016874901639837</v>
+      </c>
+      <c r="C56">
+        <v>0.1759966774895859</v>
+      </c>
+      <c r="D56">
+        <v>0.01555847590339979</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.003387552891734789</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01908734469423677</v>
+      </c>
+      <c r="C58">
+        <v>0.1043646721260263</v>
+      </c>
+      <c r="D58">
+        <v>0.07322590117681525</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.005907772333003437</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01064936560531868</v>
+      </c>
+      <c r="C59">
+        <v>0.1690138695256993</v>
+      </c>
+      <c r="D59">
+        <v>-0.3406669621302821</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.001518462134492897</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02484126651072461</v>
+      </c>
+      <c r="C60">
+        <v>0.225487003487712</v>
+      </c>
+      <c r="D60">
+        <v>0.01999435886821696</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01211401440376222</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001872080708409258</v>
+      </c>
+      <c r="C61">
+        <v>0.09458585419737119</v>
+      </c>
+      <c r="D61">
+        <v>0.05802448680173289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1546995781088656</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1490929170179889</v>
+      </c>
+      <c r="C62">
+        <v>0.09645533017018836</v>
+      </c>
+      <c r="D62">
+        <v>0.02648828255438046</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0008595131486843782</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006472767484003219</v>
+      </c>
+      <c r="C63">
+        <v>0.05336701163267275</v>
+      </c>
+      <c r="D63">
+        <v>0.03217825908714159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.002201148756616171</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01581272260020131</v>
+      </c>
+      <c r="C64">
+        <v>0.1048589663793845</v>
+      </c>
+      <c r="D64">
+        <v>0.05736616582341932</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.003545132833799074</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01787456842206734</v>
+      </c>
+      <c r="C65">
+        <v>0.121985695717401</v>
+      </c>
+      <c r="D65">
+        <v>0.02709880820180816</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.003678005525490344</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01334089604867282</v>
+      </c>
+      <c r="C66">
+        <v>0.1615288043038234</v>
+      </c>
+      <c r="D66">
+        <v>0.1081229474022889</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002529329685006653</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01545525841215129</v>
+      </c>
+      <c r="C67">
+        <v>0.06989642061745183</v>
+      </c>
+      <c r="D67">
+        <v>0.02566932789258925</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.00519510919793672</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001250291150293467</v>
+      </c>
+      <c r="C68">
+        <v>0.08729330265528726</v>
+      </c>
+      <c r="D68">
+        <v>-0.2566804217601091</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001100422074570713</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006416503003721648</v>
+      </c>
+      <c r="C69">
+        <v>0.05259606756672269</v>
+      </c>
+      <c r="D69">
+        <v>0.03787097247768753</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0007894166679517843</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002032881778482521</v>
+      </c>
+      <c r="C70">
+        <v>0.006047638804401384</v>
+      </c>
+      <c r="D70">
+        <v>0.0004265848386058626</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0005071471648752998</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006060791719504556</v>
+      </c>
+      <c r="C71">
+        <v>0.09213779390815033</v>
+      </c>
+      <c r="D71">
+        <v>-0.3014063245190735</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003581311145770357</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01633071438084303</v>
+      </c>
+      <c r="C72">
+        <v>0.1562728394531362</v>
+      </c>
+      <c r="D72">
+        <v>0.0129404508557461</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.004918229953104388</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03166569356554614</v>
+      </c>
+      <c r="C73">
+        <v>0.2825626183694203</v>
+      </c>
+      <c r="D73">
+        <v>0.05588799665709045</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005287121395852346</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002200834869073931</v>
+      </c>
+      <c r="C74">
+        <v>0.102023028247319</v>
+      </c>
+      <c r="D74">
+        <v>0.03764596035965603</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.003355382103673799</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01084756075629187</v>
+      </c>
+      <c r="C75">
+        <v>0.1223927591991358</v>
+      </c>
+      <c r="D75">
+        <v>0.02389359909890689</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008704465413799071</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02209781539217011</v>
+      </c>
+      <c r="C76">
+        <v>0.1469775946321945</v>
+      </c>
+      <c r="D76">
+        <v>0.05957150379738744</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.0005163634695967646</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02166538423302478</v>
+      </c>
+      <c r="C77">
+        <v>0.1129396118707274</v>
+      </c>
+      <c r="D77">
+        <v>0.05064053124659752</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001527801582122905</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01508865410124051</v>
+      </c>
+      <c r="C78">
+        <v>0.09673177061141298</v>
+      </c>
+      <c r="D78">
+        <v>0.07901560934254037</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02254020910846764</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03846631245116556</v>
+      </c>
+      <c r="C79">
+        <v>0.1566499788579908</v>
+      </c>
+      <c r="D79">
+        <v>0.03243456805617984</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006835396958200873</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01004621417447945</v>
+      </c>
+      <c r="C80">
+        <v>0.03765277651379127</v>
+      </c>
+      <c r="D80">
+        <v>0.03125621418394187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0009239887922782156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01565417487099187</v>
+      </c>
+      <c r="C81">
+        <v>0.1297358187675551</v>
+      </c>
+      <c r="D81">
+        <v>0.03804548680780155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005145477079570604</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01968801365251435</v>
+      </c>
+      <c r="C82">
+        <v>0.1382487718021004</v>
+      </c>
+      <c r="D82">
+        <v>0.03924029685580224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006015827055493957</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01043031676273298</v>
+      </c>
+      <c r="C83">
+        <v>0.05985026336248406</v>
+      </c>
+      <c r="D83">
+        <v>0.04784062020899658</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01107602988452973</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01186931768958187</v>
+      </c>
+      <c r="C84">
+        <v>0.03823558712332312</v>
+      </c>
+      <c r="D84">
+        <v>-0.002839102295725068</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.0143589122366585</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02917830704552341</v>
+      </c>
+      <c r="C85">
+        <v>0.1246628831125252</v>
+      </c>
+      <c r="D85">
+        <v>0.04004549112054816</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002389413169498645</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004633649613716827</v>
+      </c>
+      <c r="C86">
+        <v>0.05066106348332428</v>
+      </c>
+      <c r="D86">
+        <v>0.02759119563670459</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.002455983291936385</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01074919141671934</v>
+      </c>
+      <c r="C87">
+        <v>0.1272324971023274</v>
+      </c>
+      <c r="D87">
+        <v>0.07947167399814282</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01085893008694323</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003157063151261822</v>
+      </c>
+      <c r="C88">
+        <v>0.06326732039043982</v>
+      </c>
+      <c r="D88">
+        <v>0.02670639490436319</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01068057123901778</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001443985800151309</v>
+      </c>
+      <c r="C89">
+        <v>0.1397395870456522</v>
+      </c>
+      <c r="D89">
+        <v>-0.318414851251461</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.003049754243644809</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006980151615374857</v>
+      </c>
+      <c r="C90">
+        <v>0.1210407739244586</v>
+      </c>
+      <c r="D90">
+        <v>-0.3139422951795078</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0006102341348724424</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01030609661967843</v>
+      </c>
+      <c r="C91">
+        <v>0.09946718741332043</v>
+      </c>
+      <c r="D91">
+        <v>0.02488306590975125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008327145120921215</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0008397677426679494</v>
+      </c>
+      <c r="C92">
+        <v>0.1344836532803386</v>
+      </c>
+      <c r="D92">
+        <v>-0.3215533513805648</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001991069167346158</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004863303673990405</v>
+      </c>
+      <c r="C93">
+        <v>0.1058508301636167</v>
+      </c>
+      <c r="D93">
+        <v>-0.298950391416726</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003664284379548482</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02149454329261322</v>
+      </c>
+      <c r="C94">
+        <v>0.1426961107222796</v>
+      </c>
+      <c r="D94">
+        <v>0.05261177555232328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.001548234446431973</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01646475363849538</v>
+      </c>
+      <c r="C95">
+        <v>0.1217894916763394</v>
+      </c>
+      <c r="D95">
+        <v>0.06511312341749777</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.006905467960883877</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03708214960470189</v>
+      </c>
+      <c r="C97">
+        <v>0.225233821861243</v>
+      </c>
+      <c r="D97">
+        <v>0.0008063692100746467</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.004547327292045372</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03758819326753757</v>
+      </c>
+      <c r="C98">
+        <v>0.2558974323910398</v>
+      </c>
+      <c r="D98">
+        <v>0.0333328860750212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9861560265890553</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9813815323394103</v>
+      </c>
+      <c r="C99">
+        <v>-0.1195388629812117</v>
+      </c>
+      <c r="D99">
+        <v>-0.02343979903388906</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0008589130005628271</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002710760325601698</v>
+      </c>
+      <c r="C101">
+        <v>0.04840341078591633</v>
+      </c>
+      <c r="D101">
+        <v>0.01043057032318464</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
